--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/Median_Pulse_Widths_StandAlone.xlsx
@@ -834,7 +834,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -863,7 +863,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -892,7 +892,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
@@ -921,7 +921,7 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
@@ -979,7 +979,7 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -1008,7 +1008,7 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
@@ -1066,7 +1066,7 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -1211,7 +1211,7 @@
         <v>0.7</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
@@ -1240,7 +1240,7 @@
         <v>0.8</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -1269,7 +1269,7 @@
         <v>0.9</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -1327,7 +1327,7 @@
         <v>0.7</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -1385,7 +1385,7 @@
         <v>0.9</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>71</v>
@@ -1414,7 +1414,7 @@
         <v>0.5</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -1443,7 +1443,7 @@
         <v>0.7</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -1472,7 +1472,7 @@
         <v>0.8</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -1501,7 +1501,7 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -1530,7 +1530,7 @@
         <v>0.5</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -1559,7 +1559,7 @@
         <v>0.7</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
@@ -1588,7 +1588,7 @@
         <v>0.8</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>73</v>
@@ -1617,7 +1617,7 @@
         <v>0.9</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
@@ -1675,7 +1675,7 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>74</v>
@@ -1704,7 +1704,7 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
@@ -1762,7 +1762,7 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>75</v>
@@ -1791,7 +1791,7 @@
         <v>0.7</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -1820,7 +1820,7 @@
         <v>0.8</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
@@ -1878,7 +1878,7 @@
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
         <v>76</v>
@@ -1907,7 +1907,7 @@
         <v>0.7</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
@@ -1936,7 +1936,7 @@
         <v>0.8</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
@@ -1965,7 +1965,7 @@
         <v>0.9</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>76</v>
@@ -1994,7 +1994,7 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
         <v>77</v>
@@ -2023,7 +2023,7 @@
         <v>0.7</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
@@ -2052,7 +2052,7 @@
         <v>0.8</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>77</v>
@@ -2081,7 +2081,7 @@
         <v>0.9</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>77</v>
@@ -2139,7 +2139,7 @@
         <v>0.7</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>78</v>
@@ -2168,7 +2168,7 @@
         <v>0.8</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>78</v>
@@ -2197,7 +2197,7 @@
         <v>0.9</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
         <v>78</v>
@@ -2284,7 +2284,7 @@
         <v>0.8</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
         <v>79</v>
@@ -2313,7 +2313,7 @@
         <v>0.9</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
         <v>79</v>
@@ -2342,7 +2342,7 @@
         <v>0.5</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -2371,7 +2371,7 @@
         <v>0.7</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -2400,7 +2400,7 @@
         <v>0.8</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -2429,7 +2429,7 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -2458,7 +2458,7 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
@@ -2516,7 +2516,7 @@
         <v>0.8</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>81</v>
@@ -2545,7 +2545,7 @@
         <v>0.9</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -2574,7 +2574,7 @@
         <v>0.5</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>82</v>
@@ -2603,7 +2603,7 @@
         <v>0.7</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
@@ -2632,7 +2632,7 @@
         <v>0.8</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
@@ -2661,7 +2661,7 @@
         <v>0.9</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -2719,7 +2719,7 @@
         <v>0.7</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -2748,7 +2748,7 @@
         <v>0.8</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
@@ -2835,7 +2835,7 @@
         <v>0.7</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
         <v>84</v>
@@ -2864,7 +2864,7 @@
         <v>0.8</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
         <v>84</v>
@@ -2893,7 +2893,7 @@
         <v>0.9</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
         <v>84</v>
@@ -2922,7 +2922,7 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
         <v>85</v>
@@ -2951,7 +2951,7 @@
         <v>0.7</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>85</v>
@@ -2980,7 +2980,7 @@
         <v>0.8</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
@@ -3038,7 +3038,7 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
         <v>86</v>
@@ -3067,7 +3067,7 @@
         <v>0.7</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
         <v>86</v>
@@ -3096,7 +3096,7 @@
         <v>0.8</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
         <v>86</v>
@@ -3125,7 +3125,7 @@
         <v>0.9</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
@@ -3154,7 +3154,7 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
@@ -3212,7 +3212,7 @@
         <v>0.8</v>
       </c>
       <c r="C84">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>87</v>
@@ -3241,7 +3241,7 @@
         <v>0.9</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
         <v>87</v>
@@ -3270,7 +3270,7 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -3299,7 +3299,7 @@
         <v>0.7</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -3328,7 +3328,7 @@
         <v>0.8</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
         <v>88</v>
@@ -3357,7 +3357,7 @@
         <v>0.9</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
@@ -3473,7 +3473,7 @@
         <v>0.9</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>89</v>
@@ -3502,7 +3502,7 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
         <v>90</v>
@@ -3531,7 +3531,7 @@
         <v>0.7</v>
       </c>
       <c r="C95">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
         <v>90</v>
@@ -3560,7 +3560,7 @@
         <v>0.8</v>
       </c>
       <c r="C96">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
         <v>90</v>
@@ -3618,7 +3618,7 @@
         <v>0.5</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
         <v>91</v>
@@ -3705,7 +3705,7 @@
         <v>0.9</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
         <v>91</v>
@@ -3792,7 +3792,7 @@
         <v>0.8</v>
       </c>
       <c r="C104">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
         <v>92</v>
@@ -3850,7 +3850,7 @@
         <v>0.5</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>93</v>
@@ -3879,7 +3879,7 @@
         <v>0.7</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
         <v>93</v>
@@ -3908,7 +3908,7 @@
         <v>0.8</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
         <v>93</v>
@@ -3937,7 +3937,7 @@
         <v>0.9</v>
       </c>
       <c r="C109">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s">
         <v>93</v>
@@ -3966,7 +3966,7 @@
         <v>0.5</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
         <v>94</v>
@@ -4024,7 +4024,7 @@
         <v>0.8</v>
       </c>
       <c r="C112">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
         <v>94</v>
@@ -4053,7 +4053,7 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
         <v>94</v>
@@ -4082,7 +4082,7 @@
         <v>0.5</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
         <v>95</v>
@@ -4111,7 +4111,7 @@
         <v>0.7</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
         <v>95</v>
@@ -4140,7 +4140,7 @@
         <v>0.8</v>
       </c>
       <c r="C116">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
         <v>95</v>
@@ -4169,7 +4169,7 @@
         <v>0.9</v>
       </c>
       <c r="C117">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>95</v>
@@ -4285,7 +4285,7 @@
         <v>0.9</v>
       </c>
       <c r="C121">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
         <v>96</v>
@@ -4314,7 +4314,7 @@
         <v>0.5</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
         <v>97</v>
@@ -4343,7 +4343,7 @@
         <v>0.7</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
@@ -4372,7 +4372,7 @@
         <v>0.8</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -4401,7 +4401,7 @@
         <v>0.9</v>
       </c>
       <c r="C125">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
@@ -4430,7 +4430,7 @@
         <v>0.5</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
         <v>98</v>
@@ -4517,7 +4517,7 @@
         <v>0.9</v>
       </c>
       <c r="C129">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s">
         <v>98</v>
@@ -4546,7 +4546,7 @@
         <v>0.5</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>99</v>
@@ -4575,7 +4575,7 @@
         <v>0.7</v>
       </c>
       <c r="C131">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
         <v>99</v>
@@ -4604,7 +4604,7 @@
         <v>0.8</v>
       </c>
       <c r="C132">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D132" t="s">
         <v>99</v>
@@ -4662,7 +4662,7 @@
         <v>0.5</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
         <v>100</v>
@@ -4691,7 +4691,7 @@
         <v>0.7</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
         <v>100</v>
@@ -4894,7 +4894,7 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D142" t="s">
         <v>102</v>
@@ -4952,7 +4952,7 @@
         <v>0.8</v>
       </c>
       <c r="C144">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
         <v>102</v>
@@ -5010,7 +5010,7 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D146" t="s">
         <v>103</v>
@@ -5068,7 +5068,7 @@
         <v>0.8</v>
       </c>
       <c r="C148">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
         <v>103</v>
@@ -5097,7 +5097,7 @@
         <v>0.9</v>
       </c>
       <c r="C149">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
         <v>103</v>
@@ -5155,7 +5155,7 @@
         <v>0.7</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" t="s">
         <v>104</v>
@@ -5213,7 +5213,7 @@
         <v>0.9</v>
       </c>
       <c r="C153">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
         <v>104</v>
@@ -5242,7 +5242,7 @@
         <v>0.5</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D154" t="s">
         <v>105</v>
@@ -5271,7 +5271,7 @@
         <v>0.7</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
         <v>105</v>
@@ -5300,7 +5300,7 @@
         <v>0.8</v>
       </c>
       <c r="C156">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D156" t="s">
         <v>105</v>
@@ -5329,7 +5329,7 @@
         <v>0.9</v>
       </c>
       <c r="C157">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
         <v>105</v>
@@ -5416,7 +5416,7 @@
         <v>0.8</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>106</v>
@@ -5445,7 +5445,7 @@
         <v>0.9</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
         <v>106</v>
@@ -5532,7 +5532,7 @@
         <v>0.8</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
         <v>107</v>
@@ -5619,7 +5619,7 @@
         <v>0.7</v>
       </c>
       <c r="C167">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
         <v>108</v>
@@ -5677,7 +5677,7 @@
         <v>0.9</v>
       </c>
       <c r="C169">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
         <v>108</v>
@@ -5793,7 +5793,7 @@
         <v>0.9</v>
       </c>
       <c r="C173">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
         <v>109</v>
@@ -5880,7 +5880,7 @@
         <v>0.8</v>
       </c>
       <c r="C176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
         <v>110</v>
@@ -5909,7 +5909,7 @@
         <v>0.9</v>
       </c>
       <c r="C177">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D177" t="s">
         <v>110</v>
@@ -5938,7 +5938,7 @@
         <v>0.5</v>
       </c>
       <c r="C178">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
         <v>111</v>
@@ -5967,7 +5967,7 @@
         <v>0.7</v>
       </c>
       <c r="C179">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
         <v>111</v>
@@ -5996,7 +5996,7 @@
         <v>0.8</v>
       </c>
       <c r="C180">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
         <v>111</v>
@@ -6054,7 +6054,7 @@
         <v>0.5</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D182" t="s">
         <v>112</v>
@@ -6083,7 +6083,7 @@
         <v>0.7</v>
       </c>
       <c r="C183">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
         <v>112</v>
@@ -6112,7 +6112,7 @@
         <v>0.8</v>
       </c>
       <c r="C184">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D184" t="s">
         <v>112</v>
@@ -6170,7 +6170,7 @@
         <v>0.5</v>
       </c>
       <c r="C186">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
         <v>113</v>
@@ -6199,7 +6199,7 @@
         <v>0.7</v>
       </c>
       <c r="C187">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D187" t="s">
         <v>113</v>
@@ -6228,7 +6228,7 @@
         <v>0.8</v>
       </c>
       <c r="C188">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
         <v>113</v>
@@ -6257,7 +6257,7 @@
         <v>0.9</v>
       </c>
       <c r="C189">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
         <v>113</v>
@@ -6286,7 +6286,7 @@
         <v>0.5</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
         <v>114</v>
@@ -6315,7 +6315,7 @@
         <v>0.7</v>
       </c>
       <c r="C191">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
         <v>114</v>
@@ -6344,7 +6344,7 @@
         <v>0.8</v>
       </c>
       <c r="C192">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
         <v>114</v>
@@ -6373,7 +6373,7 @@
         <v>0.9</v>
       </c>
       <c r="C193">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
         <v>114</v>
@@ -6431,7 +6431,7 @@
         <v>0.7</v>
       </c>
       <c r="C195">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
         <v>115</v>
@@ -6460,7 +6460,7 @@
         <v>0.8</v>
       </c>
       <c r="C196">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D196" t="s">
         <v>115</v>
@@ -6489,7 +6489,7 @@
         <v>0.9</v>
       </c>
       <c r="C197">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D197" t="s">
         <v>115</v>
@@ -6518,7 +6518,7 @@
         <v>0.5</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
         <v>116</v>
@@ -6547,7 +6547,7 @@
         <v>0.7</v>
       </c>
       <c r="C199">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D199" t="s">
         <v>116</v>
@@ -6576,7 +6576,7 @@
         <v>0.8</v>
       </c>
       <c r="C200">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D200" t="s">
         <v>116</v>
@@ -6605,7 +6605,7 @@
         <v>0.9</v>
       </c>
       <c r="C201">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
         <v>116</v>
@@ -6692,7 +6692,7 @@
         <v>0.8</v>
       </c>
       <c r="C204">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
         <v>117</v>
@@ -6721,7 +6721,7 @@
         <v>0.9</v>
       </c>
       <c r="C205">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
         <v>117</v>
@@ -6750,7 +6750,7 @@
         <v>0.5</v>
       </c>
       <c r="C206">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D206" t="s">
         <v>118</v>
@@ -6779,7 +6779,7 @@
         <v>0.7</v>
       </c>
       <c r="C207">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D207" t="s">
         <v>118</v>
@@ -6808,7 +6808,7 @@
         <v>0.8</v>
       </c>
       <c r="C208">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
         <v>118</v>
@@ -6837,7 +6837,7 @@
         <v>0.9</v>
       </c>
       <c r="C209">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D209" t="s">
         <v>118</v>
@@ -6895,7 +6895,7 @@
         <v>0.7</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D211" t="s">
         <v>119</v>
@@ -6924,7 +6924,7 @@
         <v>0.8</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D212" t="s">
         <v>119</v>
@@ -7011,7 +7011,7 @@
         <v>0.7</v>
       </c>
       <c r="C215">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D215" t="s">
         <v>120</v>
@@ -7040,7 +7040,7 @@
         <v>0.8</v>
       </c>
       <c r="C216">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D216" t="s">
         <v>120</v>
@@ -7069,7 +7069,7 @@
         <v>0.9</v>
       </c>
       <c r="C217">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D217" t="s">
         <v>120</v>
@@ -7098,7 +7098,7 @@
         <v>0.5</v>
       </c>
       <c r="C218">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D218" t="s">
         <v>121</v>
@@ -7127,7 +7127,7 @@
         <v>0.7</v>
       </c>
       <c r="C219">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D219" t="s">
         <v>121</v>
@@ -7156,7 +7156,7 @@
         <v>0.8</v>
       </c>
       <c r="C220">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D220" t="s">
         <v>121</v>
@@ -7185,7 +7185,7 @@
         <v>0.9</v>
       </c>
       <c r="C221">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D221" t="s">
         <v>121</v>
@@ -7214,7 +7214,7 @@
         <v>0.5</v>
       </c>
       <c r="C222">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
         <v>122</v>
@@ -7243,7 +7243,7 @@
         <v>0.7</v>
       </c>
       <c r="C223">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D223" t="s">
         <v>122</v>
@@ -7272,7 +7272,7 @@
         <v>0.8</v>
       </c>
       <c r="C224">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D224" t="s">
         <v>122</v>
@@ -7330,7 +7330,7 @@
         <v>0.5</v>
       </c>
       <c r="C226">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D226" t="s">
         <v>123</v>
@@ -7417,7 +7417,7 @@
         <v>0.9</v>
       </c>
       <c r="C229">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D229" t="s">
         <v>123</v>
@@ -7475,7 +7475,7 @@
         <v>0.7</v>
       </c>
       <c r="C231">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
         <v>124</v>
